--- a/汽柴煤油2.0/eta/PE-SC（期货指数）_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/PE-SC（期货指数）_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3581.0733</v>
+        <v>3051.5138</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3342.0333</v>
+        <v>3331.5143</v>
       </c>
       <c r="C3" t="n">
-        <v>3326.2255</v>
+        <v>3273.897</v>
       </c>
     </row>
     <row r="4">
